--- a/admin/Student_details.Xlsx
+++ b/admin/Student_details.Xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>Gr no.</t>
   </si>
@@ -64,9 +64,6 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t>1111111111222330000</t>
-  </si>
-  <si>
     <t xml:space="preserve">DHARMANSHU Hiteshbhai Agravat </t>
   </si>
   <si>
@@ -88,9 +85,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>1111111111222330001</t>
-  </si>
-  <si>
     <t xml:space="preserve">DHA </t>
   </si>
   <si>
@@ -112,9 +106,6 @@
     <t>ASSSFFFFFFF</t>
   </si>
   <si>
-    <t>1111111111222330002</t>
-  </si>
-  <si>
     <t>Devarsh Antani</t>
   </si>
   <si>
@@ -139,9 +130,6 @@
     <t>Cant decide</t>
   </si>
   <si>
-    <t>1111111111222330003</t>
-  </si>
-  <si>
     <t>Mayank Rathod</t>
   </si>
   <si>
@@ -167,6 +155,21 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>111111111222330000</t>
+  </si>
+  <si>
+    <t>111111111222330001</t>
+  </si>
+  <si>
+    <t>111111111222330002</t>
+  </si>
+  <si>
+    <t>111111111222330003</t>
+  </si>
+  <si>
+    <t>121223344559</t>
   </si>
 </sst>
 </file>
@@ -511,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -585,19 +588,19 @@
         <v>12125</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="D2">
         <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="H2" s="4">
         <v>44562</v>
@@ -606,19 +609,19 @@
         <v>47484</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="P2" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -626,22 +629,22 @@
         <v>12126</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3">
         <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="H3" s="4">
         <v>44593</v>
@@ -650,19 +653,19 @@
         <v>10990</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="N3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -670,44 +673,44 @@
         <v>12127</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D4">
         <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I4" s="4">
         <v>47484</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -715,44 +718,44 @@
         <v>12128</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D5">
         <v>11</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I5" s="5">
         <v>10959</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="P5" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/admin/Student_details.Xlsx
+++ b/admin/Student_details.Xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="585" windowWidth="20775" windowHeight="8895"/>
+    <workbookView xWindow="240" yWindow="480" windowWidth="28455" windowHeight="13485"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
   <si>
     <t>Gr no.</t>
   </si>
@@ -64,18 +64,27 @@
     <t>Remarks</t>
   </si>
   <si>
+    <t>Academic year</t>
+  </si>
+  <si>
+    <t>Photo</t>
+  </si>
+  <si>
+    <t>111111111222330000</t>
+  </si>
+  <si>
     <t xml:space="preserve">DHARMANSHU Hiteshbhai Agravat </t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>AAAAAA</t>
   </si>
   <si>
     <t>AAAAAB</t>
   </si>
   <si>
-    <t>1122334455</t>
-  </si>
-  <si>
     <t>121223344556</t>
   </si>
   <si>
@@ -85,6 +94,45 @@
     <t>No</t>
   </si>
   <si>
+    <t>Cant tell</t>
+  </si>
+  <si>
+    <t>2020-2021</t>
+  </si>
+  <si>
+    <t>1.jpg</t>
+  </si>
+  <si>
+    <t>111111111222330003</t>
+  </si>
+  <si>
+    <t>Mayank Rathod</t>
+  </si>
+  <si>
+    <t>Commerce</t>
+  </si>
+  <si>
+    <t>AAASSA</t>
+  </si>
+  <si>
+    <t>QWERTY</t>
+  </si>
+  <si>
+    <t>121223344559</t>
+  </si>
+  <si>
+    <t>MIX</t>
+  </si>
+  <si>
+    <t>2020-2022</t>
+  </si>
+  <si>
+    <t>4.jpg</t>
+  </si>
+  <si>
+    <t>111111111222330001</t>
+  </si>
+  <si>
     <t xml:space="preserve">DHA </t>
   </si>
   <si>
@@ -97,15 +145,18 @@
     <t>AAWWXX</t>
   </si>
   <si>
-    <t>1122336666</t>
-  </si>
-  <si>
     <t>121223344557</t>
   </si>
   <si>
     <t>ASSSFFFFFFF</t>
   </si>
   <si>
+    <t>2.jpg</t>
+  </si>
+  <si>
+    <t>111111111222330002</t>
+  </si>
+  <si>
     <t>Devarsh Antani</t>
   </si>
   <si>
@@ -115,12 +166,6 @@
     <t>QQQSSCC</t>
   </si>
   <si>
-    <t>31-6-20</t>
-  </si>
-  <si>
-    <t>1122337777</t>
-  </si>
-  <si>
     <t>121223344558</t>
   </si>
   <si>
@@ -130,63 +175,21 @@
     <t>Cant decide</t>
   </si>
   <si>
-    <t>Mayank Rathod</t>
-  </si>
-  <si>
-    <t>Commerce</t>
-  </si>
-  <si>
-    <t>AAASSA</t>
-  </si>
-  <si>
-    <t>QWERTY</t>
-  </si>
-  <si>
-    <t>30-2-22</t>
-  </si>
-  <si>
-    <t>1122338888</t>
-  </si>
-  <si>
-    <t>MIX</t>
-  </si>
-  <si>
-    <t>Cant tell</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>111111111222330000</t>
-  </si>
-  <si>
-    <t>111111111222330001</t>
-  </si>
-  <si>
-    <t>111111111222330002</t>
-  </si>
-  <si>
-    <t>111111111222330003</t>
-  </si>
-  <si>
-    <t>121223344559</t>
+    <t>3.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -209,13 +212,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,32 +512,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="21.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="4"/>
-    <col min="9" max="9" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -555,16 +562,16 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
@@ -582,180 +589,211 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>12125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
       </c>
       <c r="D2">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="4">
-        <v>44562</v>
-      </c>
-      <c r="I2" s="4">
-        <v>47484</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>19</v>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="1">
+        <v>44228</v>
+      </c>
+      <c r="I2" s="1">
+        <v>43831</v>
+      </c>
+      <c r="J2">
+        <v>1122334455</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>45</v>
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3">
-        <v>12126</v>
+        <v>12128</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
       </c>
       <c r="D3">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="1">
+        <v>47536</v>
+      </c>
+      <c r="I3" s="1">
+        <v>43832</v>
+      </c>
+      <c r="J3">
+        <v>1122338888</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="N3" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="4">
-        <v>44593</v>
-      </c>
-      <c r="I3" s="4">
-        <v>10990</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="P3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4">
+        <v>12126</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="1">
+        <v>44774</v>
+      </c>
+      <c r="I4" s="1">
+        <v>43833</v>
+      </c>
+      <c r="J4">
+        <v>1122336666</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P3" s="3" t="s">
+      <c r="R4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5">
+        <v>12127</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4">
-        <v>12127</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4">
-        <v>12</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="4">
-        <v>47484</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5">
-        <v>12128</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="H5" s="1">
+        <v>48019</v>
+      </c>
+      <c r="I5" s="1">
+        <v>43834</v>
+      </c>
+      <c r="J5">
+        <v>1122337777</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5">
-        <v>11</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="5">
-        <v>10959</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" s="2" t="s">
+      <c r="M5" t="s">
         <v>51</v>
       </c>
-      <c r="L5" s="3"/>
-      <c r="M5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>44</v>
+      <c r="N5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/admin/Student_details.Xlsx
+++ b/admin/Student_details.Xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Sem6CollegeProject\admin\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AB577C-B333-4C82-86FF-13E987F6A0C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="480" windowWidth="28455" windowHeight="13485"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
   <si>
     <t>Gr no.</t>
   </si>
@@ -79,24 +85,12 @@
     <t>-</t>
   </si>
   <si>
-    <t>AAAAAA</t>
-  </si>
-  <si>
-    <t>AAAAAB</t>
-  </si>
-  <si>
     <t>121223344556</t>
   </si>
   <si>
-    <t>ASSSDDDDDF</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
-    <t>Cant tell</t>
-  </si>
-  <si>
     <t>2020-2021</t>
   </si>
   <si>
@@ -112,18 +106,9 @@
     <t>Commerce</t>
   </si>
   <si>
-    <t>AAASSA</t>
-  </si>
-  <si>
-    <t>QWERTY</t>
-  </si>
-  <si>
     <t>121223344559</t>
   </si>
   <si>
-    <t>MIX</t>
-  </si>
-  <si>
     <t>2020-2022</t>
   </si>
   <si>
@@ -139,12 +124,6 @@
     <t>Science</t>
   </si>
   <si>
-    <t>AASSDD</t>
-  </si>
-  <si>
-    <t>AAWWXX</t>
-  </si>
-  <si>
     <t>121223344557</t>
   </si>
   <si>
@@ -160,32 +139,35 @@
     <t>Devarsh Antani</t>
   </si>
   <si>
-    <t>PPPPA</t>
-  </si>
-  <si>
-    <t>QQQSSCC</t>
-  </si>
-  <si>
     <t>121223344558</t>
   </si>
   <si>
-    <t>AAAAAEEEE</t>
-  </si>
-  <si>
-    <t>Cant decide</t>
-  </si>
-  <si>
     <t>3.jpg</t>
+  </si>
+  <si>
+    <t>hindu</t>
+  </si>
+  <si>
+    <t>OBC</t>
+  </si>
+  <si>
+    <t>BHUJ</t>
+  </si>
+  <si>
+    <t>Hindu</t>
+  </si>
+  <si>
+    <t>Bhuj</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -222,6 +204,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -511,36 +501,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -596,7 +586,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>12125</v>
       </c>
@@ -613,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="H2" s="1">
         <v>44228</v>
@@ -625,48 +615,45 @@
         <v>43831</v>
       </c>
       <c r="J2">
-        <v>1122334455</v>
+        <v>9737411698</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" t="s">
         <v>23</v>
       </c>
-      <c r="L2" t="s">
+      <c r="R2" t="s">
         <v>24</v>
       </c>
-      <c r="N2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>12128</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D3">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H3" s="1">
         <v>47536</v>
@@ -675,45 +662,42 @@
         <v>43832</v>
       </c>
       <c r="J3">
-        <v>1122338888</v>
+        <v>8980462257</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M3" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="Q3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="R3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>12126</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D4">
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
         <v>42</v>
@@ -725,48 +709,45 @@
         <v>43833</v>
       </c>
       <c r="J4">
-        <v>1122336666</v>
+        <v>7016991037</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="L4" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="N4" t="s">
-        <v>25</v>
-      </c>
-      <c r="P4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="R4" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>12127</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D5">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H5" s="1">
         <v>48019</v>
@@ -775,25 +756,22 @@
         <v>43834</v>
       </c>
       <c r="J5">
-        <v>1122337777</v>
+        <v>7359817926</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="M5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="N5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P5" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="Q5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="R5" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/admin/Student_details.Xlsx
+++ b/admin/Student_details.Xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Sem6CollegeProject\admin\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AB577C-B333-4C82-86FF-13E987F6A0C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="480" windowWidth="28455" windowHeight="13485"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
   <si>
     <t>Gr no.</t>
   </si>
@@ -85,12 +79,24 @@
     <t>-</t>
   </si>
   <si>
+    <t>AAAAAA</t>
+  </si>
+  <si>
+    <t>AAAAAB</t>
+  </si>
+  <si>
     <t>121223344556</t>
   </si>
   <si>
+    <t>ASSSDDDDDF</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
+    <t>Cant tell</t>
+  </si>
+  <si>
     <t>2020-2021</t>
   </si>
   <si>
@@ -106,9 +112,18 @@
     <t>Commerce</t>
   </si>
   <si>
+    <t>AAASSA</t>
+  </si>
+  <si>
+    <t>QWERTY</t>
+  </si>
+  <si>
     <t>121223344559</t>
   </si>
   <si>
+    <t>MIX</t>
+  </si>
+  <si>
     <t>2020-2022</t>
   </si>
   <si>
@@ -124,6 +139,12 @@
     <t>Science</t>
   </si>
   <si>
+    <t>AASSDD</t>
+  </si>
+  <si>
+    <t>AAWWXX</t>
+  </si>
+  <si>
     <t>121223344557</t>
   </si>
   <si>
@@ -139,35 +160,32 @@
     <t>Devarsh Antani</t>
   </si>
   <si>
+    <t>PPPPA</t>
+  </si>
+  <si>
+    <t>QQQSSCC</t>
+  </si>
+  <si>
     <t>121223344558</t>
   </si>
   <si>
+    <t>AAAAAEEEE</t>
+  </si>
+  <si>
+    <t>Cant decide</t>
+  </si>
+  <si>
     <t>3.jpg</t>
-  </si>
-  <si>
-    <t>hindu</t>
-  </si>
-  <si>
-    <t>OBC</t>
-  </si>
-  <si>
-    <t>BHUJ</t>
-  </si>
-  <si>
-    <t>Hindu</t>
-  </si>
-  <si>
-    <t>Bhuj</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -204,14 +222,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -501,36 +511,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -586,7 +596,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>12125</v>
       </c>
@@ -603,10 +613,10 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="H2" s="1">
         <v>44228</v>
@@ -615,45 +625,48 @@
         <v>43831</v>
       </c>
       <c r="J2">
-        <v>9737411698</v>
+        <v>1122334455</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="N2" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="P2" t="s">
+        <v>26</v>
       </c>
       <c r="Q2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="R2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>12128</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H3" s="1">
         <v>47536</v>
@@ -662,42 +675,45 @@
         <v>43832</v>
       </c>
       <c r="J3">
-        <v>8980462257</v>
+        <v>1122338888</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="M3" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="N3" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="P3" t="s">
+        <v>35</v>
       </c>
       <c r="Q3" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="R3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>12126</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D4">
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
         <v>42</v>
@@ -709,45 +725,48 @@
         <v>43833</v>
       </c>
       <c r="J4">
-        <v>7016991037</v>
+        <v>1122336666</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="L4" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="N4" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="P4" t="s">
+        <v>20</v>
       </c>
       <c r="Q4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="R4" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>12127</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D5">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H5" s="1">
         <v>48019</v>
@@ -756,22 +775,25 @@
         <v>43834</v>
       </c>
       <c r="J5">
-        <v>7359817926</v>
+        <v>1122337777</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="M5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="N5" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="P5" t="s">
+        <v>52</v>
       </c>
       <c r="Q5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="R5" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
